--- a/ExcelTest/test.xlsx
+++ b/ExcelTest/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Casual\Server\RsoCS\ExcelTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BalloonBattle\trunk\Server\RsoCS\ExcelTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A82A87-306A-443D-9053-9F9DC2CC8214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACED5C60-4B93-4E28-B529-C467295B5EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>EnumType</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,6 +50,10 @@
   </si>
   <si>
     <t>CCC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -99,9 +107,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -383,36 +392,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelTest/test.xlsx
+++ b/ExcelTest/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BalloonBattle\trunk\Server\RsoCS\ExcelTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACED5C60-4B93-4E28-B529-C467295B5EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE510A8-60CB-422A-9220-B40995D51D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,25 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>EnumType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
+    <t>statuses</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +94,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -392,43 +376,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>77</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
